--- a/supp_data/pcawg_positive_sig_sig_survivals.xlsx
+++ b/supp_data/pcawg_positive_sig_sig_survivals.xlsx
@@ -7,499 +7,839 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Liver_HCC__SBS40+Ageing" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Skin_Melanoma__SBS40+SBS38" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Liver_HCC__CL SBS1+SBS40" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Skin_Melanoma__SBS38+SBS40" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Skin_Melanoma__SBS40+SBS38" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="960">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="932">
+  <si>
+    <t xml:space="preserve">Biliary_AdenoCA__SBS40+APOBEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surv(survival_time, vital_status) ~ age_at_diagnosis + log(total_muts + 1) + exists__1 + exists__2 + exists__1 * exists__2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">coef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exp(coef)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">se(coef)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pr(&gt;|z|)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age_at_diagnosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">log(total_muts + 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APOBEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APOBEC*SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model log-likelihoods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">initial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">final</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-43.28267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-41.53284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surv(survival_time, vital_status) ~ log(total_muts + 1) + exists__1 + exists__2 + exists__1 * exists__2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-41.70244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLR test for models 2 and 1	nested: TRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variance test </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  H0: Model 1 and Model 2 are indistinguishable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  H1: Model 1 and Model 2 are distinguishable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robust likelihood ratio test of distinguishable models </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  H0: Both models fit equally well </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  H1: Full model fits better than reduced model </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.339,   p = 0.641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classical likelihood ratio test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.339,   p = 0.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surv(survival_time, vital_status) ~ age_at_diagnosis + exists__1 + exists__2 + exists__1 * exists__2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-41.83398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLR test for models 3 and 2	nested: FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-nested likelihood ratio test </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  H0: Model fits are equally close to true Model </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  H1A: Model 1 fits better than Model 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.112,   p = 0.545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  H1B: Model 2 fits better than Model 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.112,   p = 0.4552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  H1: Model fits not equally close to true Model </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.112,   two-sided p = 0.9105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surv(survival_time, vital_status) ~ exists__1 + exists__2 + exists__1 * exists__2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-42.22748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLR test for models 4 and 2	nested: TRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 1.050,   p = 0.188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 1.050,   p = 0.305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surv(survival_time, vital_status) ~ age_at_diagnosis + log(total_muts + 1) + status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusAPOBEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusSBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusAPOBEC+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLR test for models 5 and 4	nested: FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -2.319,   p = 0.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -2.319,   p = 0.01021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -2.319,   two-sided p = 0.02041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surv(survival_time, vital_status) ~ log(total_muts + 1) + status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLR test for models 6 and 4	nested: FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.389,   p = 0.918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.389,   p = 0.08249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.389,   two-sided p = 0.165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surv(survival_time, vital_status) ~ age_at_diagnosis + status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLR test for models 7 and 4	nested: FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.937,   p = 0.826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.937,   p = 0.1744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.937,   two-sided p = 0.3488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surv(survival_time, vital_status) ~ status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLR test for models 8 and 4	nested: FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 1.422,   p = 0.0775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 1.422,   p = 0.9225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 1.422,   two-sided p = 0.155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best model is Model 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.472941680679752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panc_AdenoCA__SBS40+APOBEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-766.4800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-763.0581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-764.1738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 2.231,   p = 0.156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 2.231,   p = 0.135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-764.0944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.035,   p = 0.486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.035,   p = 0.514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.035,   two-sided p = 0.9721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-765.2338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 2.120,   p = 0.142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 2.120,   p = 0.145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.472,   p = 0.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.472,   p = 0.07049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.472,   two-sided p = 0.141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.266,   p = 0.897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.266,   p = 0.1027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.266,   two-sided p = 0.2055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.791,   p = 0.785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.791,   p = 0.2145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.791,   two-sided p = 0.4291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.203,   p = 0.419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.203,   p = 0.5806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.203,   two-sided p = 0.8388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best model is Model 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.39003159006871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skin_Melanoma__SBS40+APOBEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-218.7649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-217.3300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-217.5978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.536,   p = 0.482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.536,   p = 0.464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-217.5621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.034,   p = 0.487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.034,   p = 0.5135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.034,   two-sided p = 0.9731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-217.7981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.401,   p = 0.534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.401,   p = 0.527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -3.909,   p = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -3.909,   p = 4.63e-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -3.909,   two-sided p = 9.26e-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -2.903,   p = 0.998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -2.903,   p = 0.001849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -2.903,   two-sided p = 0.003698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -2.481,   p = 0.993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -2.481,   p = 0.006544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -2.481,   two-sided p = 0.01309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.433,   p = 0.924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.433,   p = 0.07595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.433,   two-sided p = 0.1519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.374312397569563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panc_Endocrine__CL SBS1+APOBEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL SBS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APOBEC*CL SBS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-48.41764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-44.42495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best model is Model 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skin_Melanoma__CL SBS1+APOBEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-217.4501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breast_AdenoCA__CL SBS5+APOBEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL SBS5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APOBEC*CL SBS5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-17.50231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-16.68693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Head_SCC__CL SBS5+APOBEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-22.55216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-20.53993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breast_AdenoCA__HR+APOBEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APOBEC*HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-15.98880</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eso_AdenoCA__HR+APOBEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-172.9890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-166.0729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-166.1907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.236,   p = 0.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.236,   p = 0.627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-166.1797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.014,   p = 0.494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.014,   p = 0.5057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.014,   two-sided p = 0.9886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-166.3124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.244,   p = 0.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.244,   p = 0.622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusHR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusAPOBEC+HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -5.498,   p = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -5.498,   p = 1.918e-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -5.498,   two-sided p = 3.837e-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -3.474,   p = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -3.474,   p = 0.0002565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -3.474,   two-sided p = 0.0005129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -3.370,   p = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -3.370,   p = 0.0003755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -3.370,   two-sided p = 0.000751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.103,   p = 0.459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.103,   p = 0.5408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.103,   two-sided p = 0.9184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.995782032196537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panc_AdenoCA__HR+APOBEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-763.0243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-763.9621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 1.876,   p = 0.203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 1.876,   p = 0.171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-763.8574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.052,   p = 0.479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.052,   p = 0.5206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.052,   two-sided p = 0.9588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-764.7851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 1.646,   p = 0.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 1.646,   p = 0.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.883,   p = 0.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.883,   p = 0.02982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.883,   two-sided p = 0.05964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.681,   p = 0.954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.681,   p = 0.04636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.681,   two-sided p = 0.09272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.017,   p = 0.845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.017,   p = 0.1547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.017,   two-sided p = 0.3094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.244,   p = 0.596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.244,   p = 0.4037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.244,   two-sided p = 0.8075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.269903248493552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skin_Melanoma__SBS38+APOBEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBS38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APOBEC*SBS38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-215.7486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-215.9832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.469,   p = 0.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.469,   p = 0.493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-216.5328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.352,   p = 0.638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.352,   p = 0.3623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.352,   two-sided p = 0.7247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-216.7422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 1.518,   p = 0.215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 1.518,   p = 0.218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusSBS38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusAPOBEC+SBS38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -2.172,   p = 0.985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -2.172,   p = 0.01493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -2.172,   two-sided p = 0.02987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.978,   p = 0.836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.978,   p = 0.164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.978,   two-sided p = 0.3279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -2.677,   p = 0.996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -2.677,   p = 0.003718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -2.677,   two-sided p = 0.007435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 1.360,   p = 0.087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 1.360,   p = 0.913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 1.360,   two-sided p = 0.174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.673990455325615</t>
+  </si>
   <si>
     <t xml:space="preserve">Biliary_AdenoCA__APOBEC+SBS40</t>
   </si>
   <si>
-    <t xml:space="preserve">Model 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surv(survival_time, vital_status) ~ age_at_diagnosis + log(total_muts + 1) + exists__1 + exists__2 + exists__1 * exists__2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">coef</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp(coef)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">se(coef)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pr(&gt;|z|)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">age_at_diagnosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">log(total_muts + 1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APOBEC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBS40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APOBEC*SBS40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model log-likelihoods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">initial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">final</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-43.28267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-41.53284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surv(survival_time, vital_status) ~ log(total_muts + 1) + exists__1 + exists__2 + exists__1 * exists__2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-41.70244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLR test for models 2 and 1	nested: TRUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Variance test </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H0: Model 1 and Model 2 are indistinguishable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H1: Model 1 and Model 2 are distinguishable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Robust likelihood ratio test of distinguishable models </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H0: Both models fit equally well </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H1: Full model fits better than reduced model </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.339,   p = 0.641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Classical likelihood ratio test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.339,   p = 0.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surv(survival_time, vital_status) ~ age_at_diagnosis + exists__1 + exists__2 + exists__1 * exists__2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-41.83398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLR test for models 3 and 2	nested: FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-nested likelihood ratio test </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H0: Model fits are equally close to true Model </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H1A: Model 1 fits better than Model 2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.112,   p = 0.545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H1B: Model 2 fits better than Model 1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.112,   p = 0.4552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H1: Model fits not equally close to true Model </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.112,   two-sided p = 0.9105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surv(survival_time, vital_status) ~ exists__1 + exists__2 + exists__1 * exists__2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-42.22748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLR test for models 4 and 2	nested: TRUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 1.050,   p = 0.188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 1.050,   p = 0.305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surv(survival_time, vital_status) ~ age_at_diagnosis + log(total_muts + 1) + status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusAPOBEC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusAPOBEC+SBS40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLR test for models 5 and 4	nested: FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -2.319,   p = 0.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -2.319,   p = 0.01021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -2.319,   two-sided p = 0.02041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surv(survival_time, vital_status) ~ log(total_muts + 1) + status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLR test for models 6 and 4	nested: FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.389,   p = 0.918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.389,   p = 0.08249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.389,   two-sided p = 0.165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surv(survival_time, vital_status) ~ age_at_diagnosis + status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLR test for models 7 and 4	nested: FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.937,   p = 0.826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.937,   p = 0.1744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.937,   two-sided p = 0.3488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surv(survival_time, vital_status) ~ status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLR test for models 8 and 4	nested: FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 1.422,   p = 0.0775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 1.422,   p = 0.9225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 1.422,   two-sided p = 0.155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Best model is Model 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.472941680679752</t>
-  </si>
-  <si>
     <t xml:space="preserve">Panc_AdenoCA__APOBEC+SBS40</t>
   </si>
   <si>
-    <t xml:space="preserve">-766.4800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-763.0581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-764.1738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 2.231,   p = 0.156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 2.231,   p = 0.135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-764.0944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.035,   p = 0.486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.035,   p = 0.514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.035,   two-sided p = 0.9721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-765.2338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 2.120,   p = 0.142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 2.120,   p = 0.145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.472,   p = 0.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.472,   p = 0.07049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.472,   two-sided p = 0.141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.266,   p = 0.897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.266,   p = 0.1027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.266,   two-sided p = 0.2055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.791,   p = 0.785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.791,   p = 0.2145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.791,   two-sided p = 0.4291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.203,   p = 0.419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.203,   p = 0.5806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.203,   two-sided p = 0.8388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Best model is Model 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.39003159006871</t>
-  </si>
-  <si>
     <t xml:space="preserve">Skin_Melanoma__APOBEC+SBS40</t>
   </si>
   <si>
-    <t xml:space="preserve">-218.7649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-217.3300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-217.5978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.536,   p = 0.482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.536,   p = 0.464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-217.5621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.034,   p = 0.487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.034,   p = 0.5135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.034,   two-sided p = 0.9731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-217.7981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.401,   p = 0.534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.401,   p = 0.527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -3.909,   p = 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -3.909,   p = 4.63e-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -3.909,   two-sided p = 9.26e-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -2.903,   p = 0.998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -2.903,   p = 0.001849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -2.903,   two-sided p = 0.003698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -2.481,   p = 0.993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -2.481,   p = 0.006544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -2.481,   two-sided p = 0.01309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.433,   p = 0.924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.433,   p = 0.07595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.433,   two-sided p = 0.1519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.374312397569563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panc_Endocrine__APOBEC+Ageing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ageing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ageing*APOBEC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-48.41764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-44.42495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Best model is Model 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skin_Melanoma__APOBEC+Ageing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-217.4501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNS_GBM__SBS40+Ageing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ageing*SBS40</t>
+    <t xml:space="preserve">CNS_GBM__CL SBS1+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL SBS1*SBS40</t>
   </si>
   <si>
     <t xml:space="preserve">-78.09222</t>
@@ -508,7 +848,7 @@
     <t xml:space="preserve">-74.64116</t>
   </si>
   <si>
-    <t xml:space="preserve">CNS_Medullo__SBS40+Ageing</t>
+    <t xml:space="preserve">CNS_Medullo__CL SBS1+SBS40</t>
   </si>
   <si>
     <t xml:space="preserve">-58.13424</t>
@@ -517,7 +857,7 @@
     <t xml:space="preserve">-55.85849</t>
   </si>
   <si>
-    <t xml:space="preserve">Kidney_RCC__SBS40+Ageing</t>
+    <t xml:space="preserve">Kidney_RCC__CL SBS1+SBS40</t>
   </si>
   <si>
     <t xml:space="preserve">-153.1478</t>
@@ -526,7 +866,7 @@
     <t xml:space="preserve">-152.5131</t>
   </si>
   <si>
-    <t xml:space="preserve">Liver_HCC__SBS40+Ageing</t>
+    <t xml:space="preserve">Liver_HCC__CL SBS1+SBS40</t>
   </si>
   <si>
     <t xml:space="preserve">-340.6947</t>
@@ -574,10 +914,10 @@
     <t xml:space="preserve">    LR = 1.334,   p = 0.248</t>
   </si>
   <si>
-    <t xml:space="preserve">statusAgeing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusAgeing+SBS40</t>
+    <t xml:space="preserve">statusCL SBS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusCL SBS1+SBS40</t>
   </si>
   <si>
     <t xml:space="preserve">Fine: p = 0.602</t>
@@ -625,7 +965,7 @@
     <t xml:space="preserve">p-value of interaction in this model: 0.000377852705127983</t>
   </si>
   <si>
-    <t xml:space="preserve">Lung_AdenoCA__SBS40+Ageing</t>
+    <t xml:space="preserve">Lung_AdenoCA__CL SBS1+SBS40</t>
   </si>
   <si>
     <t xml:space="preserve">-25.19122</t>
@@ -634,7 +974,7 @@
     <t xml:space="preserve">-24.42181</t>
   </si>
   <si>
-    <t xml:space="preserve">Lymph_BNHL__SBS40+Ageing</t>
+    <t xml:space="preserve">Lymph_BNHL__CL SBS1+SBS40</t>
   </si>
   <si>
     <t xml:space="preserve">-28.17861</t>
@@ -643,13 +983,13 @@
     <t xml:space="preserve">-22.71965</t>
   </si>
   <si>
-    <t xml:space="preserve">Panc_AdenoCA__SBS40+Ageing</t>
+    <t xml:space="preserve">Panc_AdenoCA__CL SBS1+SBS40</t>
   </si>
   <si>
     <t xml:space="preserve">-764.3111</t>
   </si>
   <si>
-    <t xml:space="preserve">Prost_AdenoCA__SBS40+Ageing</t>
+    <t xml:space="preserve">Prost_AdenoCA__CL SBS1+SBS40</t>
   </si>
   <si>
     <t xml:space="preserve">-24.91025</t>
@@ -658,13 +998,13 @@
     <t xml:space="preserve">-23.72442</t>
   </si>
   <si>
-    <t xml:space="preserve">Skin_Melanoma__SBS40+Ageing</t>
+    <t xml:space="preserve">Skin_Melanoma__CL SBS1+SBS40</t>
   </si>
   <si>
     <t xml:space="preserve">-217.4395</t>
   </si>
   <si>
-    <t xml:space="preserve">Thy_AdenoCA__SBS40+Ageing</t>
+    <t xml:space="preserve">Thy_AdenoCA__CL SBS1+SBS40</t>
   </si>
   <si>
     <t xml:space="preserve">-1.791759</t>
@@ -673,2143 +1013,1720 @@
     <t xml:space="preserve">-1.762747</t>
   </si>
   <si>
-    <t xml:space="preserve">Breast_AdenoCA__APOBEC+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APOBEC*SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-17.50231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-16.68693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Head_SCC__APOBEC+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-22.55216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-20.53993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNS_Medullo__SBS40+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBS40*SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prost_AdenoCA__SBS40+SBS5</t>
+    <t xml:space="preserve">CNS_Medullo__CL SBS5+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL SBS5*SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prost_AdenoCA__CL SBS5+SBS40</t>
   </si>
   <si>
     <t xml:space="preserve">-23.40629</t>
   </si>
   <si>
-    <t xml:space="preserve">Breast_AdenoCA__Ageing+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ageing*SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-16.93872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNS_Medullo__Ageing+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-58.08392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ColoRect_AdenoCA__Ageing+SBS5</t>
+    <t xml:space="preserve">Ovary_AdenoCA__HR+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HR*SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-340.0140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-334.1545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-335.1404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 1.972,   p = 0.0981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 1.972,   p = 0.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-336.4796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.468,   p = 0.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.468,   p = 0.3198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.468,   two-sided p = 0.6397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-337.1061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 3.932,   p = 0.123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 3.932,   p = 0.0474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusHR+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLR test for models 5 and 2	nested: FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.884,   p = 0.812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.884,   p = 0.1883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.884,   two-sided p = 0.3766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLR test for models 6 and 2	nested: FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 1.948,   p = 0.0257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 1.948,   p = 0.9743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 1.948,   two-sided p = 0.05139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLR test for models 7 and 6	nested: FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLR test for models 8 and 6	nested: TRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best model is Model 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.565821396599445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lymph_BNHL__MMR+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MMR*SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-25.35687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-27.32554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 3.937,   p = 0.0323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 3.937,   p = 0.0472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusMMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusMMR+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z =  NaN,   p = NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z =  NaN,   two-sided p = NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLR test for models 8 and 2	nested: FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.666,   p = 0.747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.666,   p = 0.2526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.666,   two-sided p = 0.5051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best model is Model 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.999997958218568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eso_AdenoCA__SBS17+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBS17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBS17*SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-172.6709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-172.7017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.062,   p = 0.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.062,   p = 0.804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-172.7483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.088,   p = 0.535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.088,   p = 0.465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.088,   two-sided p = 0.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-172.7816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.160,   p = 0.744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.160,   p = 0.689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusSBS17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusSBS17+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -7.330,   p = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -7.330,   p = 1.155e-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -7.330,   two-sided p = 2.309e-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -3.979,   p = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -3.979,   p = 3.456e-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -3.979,   two-sided p = 6.913e-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -7.346,   p = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -7.346,   p = 1.02e-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -7.346,   two-sided p = 2.039e-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.020,   p = 0.492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.020,   p = 0.5081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.020,   two-sided p = 0.9838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.627043300156302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liver_HCC__SBS17+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-339.1966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skin_Melanoma__SBS38+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBS38*SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-215.4305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-215.6358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.411,   p = 0.538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.411,   p = 0.522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-215.8742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.201,   p = 0.579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.201,   p = 0.4205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.201,   two-sided p = 0.8411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-216.0369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.802,   p = 0.312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.802,   p = 0.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusSBS38+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -3.335,   p = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -3.335,   p = 0.0004267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -3.335,   two-sided p = 0.0008533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.832,   p = 0.967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.832,   p = 0.03346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.832,   two-sided p = 0.06691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -3.066,   p = 0.999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -3.066,   p = 0.001083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -3.066,   two-sided p = 0.002167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.000,   p = 0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.000,   two-sided p = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.0897878456660943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breast_AdenoCA__APOBEC+HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eso_AdenoCA__APOBEC+HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panc_AdenoCA__APOBEC+HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ovary_AdenoCA__SBS40+HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lymph_BNHL__SBS34+HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBS34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HR*SBS34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-25.88926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-27.25289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 2.727,   p = 0.0306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 2.727,   p = 0.0986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusSBS34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusHR+SBS34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-22.19561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.933,   p = 0.176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.933,   p = 0.8245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.933,   two-sided p = 0.351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-22.54246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLR test for models 7 and 2	nested: FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 1.066,   p = 0.143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 1.066,   p = 0.8567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 1.066,   two-sided p = 0.2866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.348,   p = 0.636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.348,   p = 0.3638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.348,   two-sided p = 0.7277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.999991854560661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lymph_BNHL__SBS37+HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBS37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HR*SBS37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-22.39569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-26.01151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 7.232,   p = 0.0185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 7.232,   p = 0.00716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-22.79160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLR test for models 3 and 1	nested: TRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.792,   p = 0.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.792,   p = 0.374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-27.45223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLR test for models 4 and 3	nested: TRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 9.321,   p = 0.00687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 9.321,   p = 0.00227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusSBS37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusHR+SBS37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLR test for models 5 and 3	nested: FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.782,   p = 0.783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.782,   p = 0.2171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.782,   two-sided p = 0.4342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLR test for models 6 and 3	nested: FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.957,   p = 0.831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.957,   p = 0.1692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.957,   two-sided p = 0.3384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLR test for models 7 and 3	nested: FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLR test for models 8 and 3	nested: FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.095,   p = 0.863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.095,   p = 0.1368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.095,   two-sided p = 0.2737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best model is Model 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.999955276258592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panc_Endocrine__SBS30+HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBS30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HR*SBS30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-44.45059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-44.80072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.700,   p = 0.406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.700,   p = 0.403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-46.63189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.158,   p = 0.877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.158,   p = 0.1234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.158,   two-sided p = 0.2468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-47.46553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.000451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 5.330,   p = 0.000802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 5.330,   p = 0.021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusSBS30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusHR+SBS30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.099,   p = 0.864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.099,   p = 0.1359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.099,   two-sided p = 0.2718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = &lt;2e-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.138,   p = 0.555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.138,   p = 0.4451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.138,   two-sided p = 0.8902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.00046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.795,   p = 0.787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.795,   p = 0.2134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.795,   two-sided p = 0.4269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.998248986041709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prost_AdenoCA__CL SBS1+ROS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL SBS1*ROS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-20.78468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panc_AdenoCA__CL SBS5+ROS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL SBS5*ROS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-761.1667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prost_AdenoCA__CL SBS5+ROS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-20.25388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-20.37036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.233,   p = 0.617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.233,   p = 0.629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-21.90099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.907,   p = 0.818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.907,   p = 0.1823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.907,   two-sided p = 0.3647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-22.13890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 3.537,   p = 0.027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 3.537,   p = 0.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusCL SBS5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusROS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusCL SBS5+ROS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.760,   p = 0.961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.760,   p = 0.03919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.760,   two-sided p = 0.07838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 1.234,   p = 0.109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 1.234,   p = 0.8914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 1.234,   two-sided p = 0.2173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.365,   p = 0.642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.365,   p = 0.3575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.365,   two-sided p = 0.715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.486864156983021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panc_Endocrine__PolH+SBS39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PolH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBS39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PolH*SBS39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-44.08514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lymph_BNHL__SBS40+MMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ColoRect_AdenoCA__CL SBS1+MMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL SBS1*MMR</t>
   </si>
   <si>
     <t xml:space="preserve">-6.579251</t>
   </si>
   <si>
-    <t xml:space="preserve">-5.692707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lymph_BNHL__Ageing+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-22.77068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lymph_CLL__Ageing+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-134.7144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-125.4539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myeloid_MPN__Ageing+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-11.65889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ovary_AdenoCA__Ageing+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-340.0140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-334.0547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panc_Endocrine__Ageing+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-44.46608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prost_AdenoCA__Ageing+SBS5</t>
+    <t xml:space="preserve">-2.722801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stomach_AdenoCA__CL SBS1+MMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-28.60904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-27.94247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ColoRect_AdenoCA__CL SBS5+MMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL SBS5*MMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stomach_AdenoCA__CL SBS5+MMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-27.92527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uterus_AdenoCA__CL SBS5+MMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-15.10441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-12.46552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lymph_BNHL__SBS34+MMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MMR*SBS34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-21.26094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-25.13334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 7.745,   p = 0.00359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 7.745,   p = 0.00539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-21.89980</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 1.278,   p = 0.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 1.278,   p = 0.258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-27.26476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 10.730,   p = 0.000469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 10.730,   p = 0.00105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusMMR+SBS34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.418,   p = 0.662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.418,   p = 0.3378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.418,   two-sided p = 0.6757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.979,   p = 0.836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.979,   p = 0.1638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.979,   two-sided p = 0.3276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.669,   p = 0.748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.669,   p = 0.2518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.669,   two-sided p = 0.5035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.188,   p = 0.883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.188,   p = 0.1173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.188,   two-sided p = 0.2347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.999999504072285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lymph_BNHL__SBS37+MMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MMR*SBS37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-21.38362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-25.26028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 7.753,   p = 0.0177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 7.753,   p = 0.00536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-22.02421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 1.281,   p = 0.202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 1.281,   p = 0.258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-27.32436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 10.600,   p = 0.00528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 10.600,   p = 0.00113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusMMR+SBS37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.391,   p = 0.652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.391,   p = 0.3477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.391,   two-sided p = 0.6955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.914,   p = 0.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.914,   p = 0.1803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.914,   two-sided p = 0.3606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.845,   p = 0.199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.845,   p = 0.8008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.845,   two-sided p = 0.3983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.172,   p = 0.879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.172,   p = 0.1206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.172,   two-sided p = 0.2413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.999980679776613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lymph_BNHL__Technical+MMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MMR*Technical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-23.57545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-26.19934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 5.248,   p = 0.0247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 5.248,   p = 0.022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusTechnical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusMMR+Technical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-20.17473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.838,   p = 0.201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.838,   p = 0.799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.838,   two-sided p = 0.4021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-21.32231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.684,   p = 0.247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.684,   p = 0.7531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.684,   two-sided p = 0.4938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.759,   p = 0.776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.759,   p = 0.2238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.759,   two-sided p = 0.4476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.999630964540438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ColoRect_AdenoCA__CL SBS5+PolE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PolE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL SBS5*PolE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3.420771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ColoRect_AdenoCA__SBS28+PolE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBS28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PolE*SBS28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.589820</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ColoRect_AdenoCA__CL SBS5+SBS28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL SBS5*SBS28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-5.646689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ColoRect_AdenoCA__PolE+SBS28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panc_AdenoCA__SBS17+SBS28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBS17*SBS28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-764.0746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eso_AdenoCA__SBS40+SBS17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liver_HCC__SBS40+SBS17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lymph_BNHL__CL SBS1+SBS17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL SBS1*SBS17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-22.74263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eso_AdenoCA__CL SBS5+SBS17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL SBS5*SBS17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-172.8311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lymph_BNHL__CL SBS5+SBS17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-22.76306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panc_AdenoCA__CL SBS5+SBS17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-763.7085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-765.1084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 2.800,   p = 0.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 2.800,   p = 0.0943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-765.0039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 2.591,   p = 0.111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 2.591,   p = 0.107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-766.3056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 2.603,   p = 0.126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 2.603,   p = 0.107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusCL SBS5+SBS17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.173,   p = 0.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.173,   p = 0.1205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.173,   two-sided p = 0.2409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.203,   p = 0.886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.203,   p = 0.1144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.203,   two-sided p = 0.2288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.647,   p = 0.741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.647,   p = 0.2589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.647,   two-sided p = 0.5177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.051,   p = 0.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.051,   p = 0.5204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.051,   two-sided p = 0.9592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.550207628552761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panc_AdenoCA__SBS28+SBS17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Head_SCC__CL SBS5+Tobacco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tobacco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL SBS5*Tobacco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-19.15880</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liver_HCC__CL SBS5+Tobacco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-340.2399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lung_AdenoCA__CL SBS5+Tobacco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-24.42166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lung_SCC__CL SBS5+Tobacco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-33.50507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-30.99977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liver_HCC__CL SBS5+SBS12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBS12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL SBS5*SBS12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-339.3999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liver_HCC__SBS29+SBS12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBS29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBS12*SBS29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-339.0740</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-339.1063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.065,   p = 0.841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.065,   p = 0.799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-339.7288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.458,   p = 0.676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.458,   p = 0.3235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.458,   two-sided p = 0.6471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-339.7289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 1.245,   p = 0.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 1.245,   p = 0.264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusSBS12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusSBS29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusSBS12+SBS29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -2.647,   p = 0.996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -2.647,   p = 0.004066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -2.647,   two-sided p = 0.008133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.109,   p = 0.866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.109,   p = 0.1336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.109,   two-sided p = 0.2673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -111.534,   p = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -111.534,   p = &lt; 2.2e-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -111.534,   two-sided p = &lt; 2.2e-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.019,   p = 0.507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.019,   p = 0.4925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.019,   two-sided p = 0.985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.407138517668911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liver_HCC__CL SBS5+SBS29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL SBS5*SBS29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-340.2408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liver_HCC__SBS12+SBS29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lymph_BNHL__CL SBS5+SBS34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL SBS5*SBS34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-22.80254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lymph_BNHL__HR+SBS34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lymph_BNHL__MMR+SBS34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lymph_BNHL__SBS37+SBS34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBS34*SBS37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-22.42517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-25.58834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 6.326,   p = 0.0167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 6.326,   p = 0.0119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-23.00416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 1.158,   p = 0.252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 1.158,   p = 0.282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-27.87468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 9.741,   p = 0.00157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 9.741,   p = 0.0018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusSBS34+SBS37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.427,   p = 0.665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.427,   p = 0.3347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.427,   two-sided p = 0.6694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.837,   p = 0.799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.837,   p = 0.2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.837,   two-sided p = 0.4029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.151,   p = 0.875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.151,   p = 0.1248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.151,   two-sided p = 0.2497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.99881890241557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lymph_BNHL__Technical+SBS34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBS34*Technical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-20.87222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-24.15775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 6.571,   p = 0.00735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 6.571,   p = 0.0104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-21.73248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 1.721,   p = 0.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 1.721,   p = 0.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-26.35762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 9.250,   p = 0.00101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 9.250,   p = 0.00235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusSBS34+Technical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.103,   p = 0.541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.103,   p = 0.459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.103,   two-sided p = 0.918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.759,   p = 0.224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.759,   two-sided p = 0.4479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.353,   p = 0.912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.353,   p = 0.08795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.353,   two-sided p = 0.1759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.088,   p = 0.862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.088,   p = 0.1382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.088,   two-sided p = 0.2764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.999994891879395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lymph_BNHL__CL SBS5+SBS37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL SBS5*SBS37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-22.76506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prost_AdenoCA__CL SBS5+SBS37</t>
   </si>
   <si>
     <t xml:space="preserve">-23.45713</t>
   </si>
   <si>
-    <t xml:space="preserve">Skin_Melanoma__Ageing+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-217.4436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-217.6509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.415,   p = 0.559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.415,   p = 0.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-217.9269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.194,   p = 0.577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.194,   p = 0.4231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.194,   two-sided p = 0.8462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-218.3958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 1.490,   p = 0.262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 1.490,   p = 0.222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusAgeing+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -2.473,   p = 0.993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -2.473,   p = 0.006707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -2.473,   two-sided p = 0.01341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.119,   p = 0.868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.119,   p = 0.1315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.119,   two-sided p = 0.263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.573,   p = 0.942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.573,   p = 0.05791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.573,   two-sided p = 0.1158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.000,   p = 0.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.000,   two-sided p = 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.936983711117692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stomach_AdenoCA__Ageing+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-28.60904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-28.58005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thy_AdenoCA__Ageing+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.789672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Best model is Model 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uterus_AdenoCA__Ageing+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-15.10441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-13.65731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Breast_AdenoCA__APOBEC+HR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APOBEC*HR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-15.98880</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eso_AdenoCA__APOBEC+HR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-172.9890</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-166.0729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-166.1907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.236,   p = 0.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.236,   p = 0.627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-166.1797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.014,   p = 0.494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.014,   p = 0.5057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.014,   two-sided p = 0.9886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-166.3124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.244,   p = 0.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.244,   p = 0.622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusHR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusAPOBEC+HR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -5.498,   p = 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -5.498,   p = 1.918e-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -5.498,   two-sided p = 3.837e-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -3.474,   p = 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -3.474,   p = 0.0002565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -3.474,   two-sided p = 0.0005129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -3.370,   p = 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -3.370,   p = 0.0003755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -3.370,   two-sided p = 0.000751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.103,   p = 0.459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.103,   p = 0.5408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.103,   two-sided p = 0.9184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.995782032196537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panc_AdenoCA__APOBEC+HR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-763.0243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-763.9621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 1.876,   p = 0.203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 1.876,   p = 0.171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-763.8574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.052,   p = 0.479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.052,   p = 0.5206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.052,   two-sided p = 0.9588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-764.7851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 1.646,   p = 0.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 1.646,   p = 0.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.883,   p = 0.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.883,   p = 0.02982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.883,   two-sided p = 0.05964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.681,   p = 0.954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.681,   p = 0.04636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.681,   two-sided p = 0.09272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.017,   p = 0.845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.017,   p = 0.1547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.017,   two-sided p = 0.3094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.244,   p = 0.596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.244,   p = 0.4037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.244,   two-sided p = 0.8075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.269903248493552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ovary_AdenoCA__SBS40+HR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HR*SBS40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-334.1545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-335.1404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 1.972,   p = 0.0981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 1.972,   p = 0.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-336.4796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.468,   p = 0.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.468,   p = 0.3198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.468,   two-sided p = 0.6397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-337.1061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 3.932,   p = 0.123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 3.932,   p = 0.0474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusHR+SBS40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLR test for models 5 and 2	nested: FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.884,   p = 0.812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.884,   p = 0.1883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.884,   two-sided p = 0.3766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLR test for models 6 and 2	nested: FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 1.948,   p = 0.0257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 1.948,   p = 0.9743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 1.948,   two-sided p = 0.05139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLR test for models 7 and 6	nested: FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLR test for models 8 and 6	nested: TRUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Best model is Model 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.565821396599445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prost_AdenoCA__Ageing+ROS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ageing*ROS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-20.78468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panc_AdenoCA__SBS5+ROS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROS*SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-761.1667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prost_AdenoCA__SBS5+ROS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-20.25388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-20.37036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.233,   p = 0.617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.233,   p = 0.629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-21.90099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.907,   p = 0.818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.907,   p = 0.1823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.907,   two-sided p = 0.3647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-22.13890</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 3.537,   p = 0.027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 3.537,   p = 0.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusROS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusROS+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.760,   p = 0.961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.760,   p = 0.03919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.760,   two-sided p = 0.07838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.089,   p = 0.862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.089,   p = 0.138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.089,   two-sided p = 0.276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLR test for models 7 and 2	nested: FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLR test for models 8 and 2	nested: FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.365,   p = 0.642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.365,   p = 0.3575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.365,   two-sided p = 0.715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.486864156983022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lymph_BNHL__SBS40+MMR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR*SBS40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-25.35687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-27.32554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 3.937,   p = 0.0323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 3.937,   p = 0.0472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusMMR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusMMR+SBS40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z =  NaN,   p = NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z =  NaN,   two-sided p = NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.666,   p = 0.747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.666,   p = 0.2526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.666,   two-sided p = 0.5051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.999997958218568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ColoRect_AdenoCA__Ageing+MMR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ageing*MMR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.722801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stomach_AdenoCA__Ageing+MMR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-27.94247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ColoRect_AdenoCA__SBS5+MMR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR*SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stomach_AdenoCA__SBS5+MMR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-27.92527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uterus_AdenoCA__SBS5+MMR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-12.46552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ColoRect_AdenoCA__SBS5+PolE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PolE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PolE*SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-3.420771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ColoRect_AdenoCA__SBS5+SBS28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBS28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBS28*SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-5.646689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ColoRect_AdenoCA__PolE+SBS28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PolE*SBS28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4.589820</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eso_AdenoCA__SBS40+SBS17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBS17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBS17*SBS40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-172.6709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-172.7017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.062,   p = 0.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.062,   p = 0.804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-172.7483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.088,   p = 0.535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.088,   p = 0.465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.088,   two-sided p = 0.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-172.7816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.160,   p = 0.744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.160,   p = 0.689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS17+SBS40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -7.330,   p = 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -7.330,   p = 1.155e-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -7.330,   two-sided p = 2.309e-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -3.979,   p = 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -3.979,   p = 3.456e-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -3.979,   two-sided p = 6.913e-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -7.346,   p = 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -7.346,   p = 1.02e-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -7.346,   two-sided p = 2.039e-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.020,   p = 0.492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.020,   p = 0.5081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.020,   two-sided p = 0.9838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.627043300156302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liver_HCC__SBS40+SBS17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-339.1966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lymph_BNHL__Ageing+SBS17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ageing*SBS17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-22.74263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eso_AdenoCA__SBS5+SBS17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBS17*SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-172.8311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lymph_BNHL__SBS5+SBS17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-22.76306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panc_AdenoCA__SBS5+SBS17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-763.7085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-765.1084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 2.800,   p = 0.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 2.800,   p = 0.0943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-765.0039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLR test for models 3 and 1	nested: TRUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 2.591,   p = 0.111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 2.591,   p = 0.107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-766.3056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLR test for models 4 and 3	nested: TRUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 2.603,   p = 0.126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 2.603,   p = 0.107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS17+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.173,   p = 0.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.173,   p = 0.1205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.173,   two-sided p = 0.2409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.203,   p = 0.886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.203,   p = 0.1144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.203,   two-sided p = 0.2288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.647,   p = 0.741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.647,   p = 0.2589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.647,   two-sided p = 0.5177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.055,   p = 0.522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.055,   p = 0.4779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.055,   two-sided p = 0.9557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.550207628552749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panc_AdenoCA__SBS28+SBS17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBS17*SBS28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-764.0746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Head_SCC__SBS5+Tobacco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tobacco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBS5*Tobacco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-19.15880</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liver_HCC__SBS5+Tobacco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-340.2399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lung_AdenoCA__SBS5+Tobacco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-24.42166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lung_SCC__SBS5+Tobacco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-33.50507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-30.99977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liver_HCC__SBS5+SBS12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBS12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBS12*SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-339.3999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liver_HCC__SBS5+SBS29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBS29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBS29*SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-340.2408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liver_HCC__SBS12+SBS29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBS12*SBS29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-339.0740</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-339.1063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.065,   p = 0.841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.065,   p = 0.799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-339.7288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.458,   p = 0.676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.458,   p = 0.3235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.458,   two-sided p = 0.6471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-339.7289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 1.245,   p = 0.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 1.245,   p = 0.264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS12+SBS29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -2.647,   p = 0.996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -2.647,   p = 0.004066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -2.647,   two-sided p = 0.008133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.109,   p = 0.866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.109,   p = 0.1336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.109,   two-sided p = 0.2673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -111.534,   p = 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -111.534,   p = &lt; 2.2e-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -111.534,   two-sided p = &lt; 2.2e-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.019,   p = 0.507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.019,   p = 0.4925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.019,   two-sided p = 0.985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.407138517668911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lymph_BNHL__SBS5+SBS34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBS34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBS34*SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-22.80254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lymph_BNHL__HR+SBS34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HR*SBS34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-25.88926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-27.25289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 2.727,   p = 0.0306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 2.727,   p = 0.0986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusHR+SBS34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-22.19561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.933,   p = 0.176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.933,   p = 0.8245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.933,   two-sided p = 0.351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-22.54246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 1.066,   p = 0.143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 1.066,   p = 0.8567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 1.066,   two-sided p = 0.2866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.348,   p = 0.636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.348,   p = 0.3638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.348,   two-sided p = 0.7277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.999991854560661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lymph_BNHL__MMR+SBS34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR*SBS34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-21.26094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-25.13334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 7.745,   p = 0.00359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 7.745,   p = 0.00539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-21.89980</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 1.278,   p = 0.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 1.278,   p = 0.258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-27.26476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 10.730,   p = 0.000469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 10.730,   p = 0.00105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusMMR+SBS34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLR test for models 5 and 3	nested: FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.418,   p = 0.662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.418,   p = 0.3378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.418,   two-sided p = 0.6757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLR test for models 6 and 3	nested: FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.979,   p = 0.836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.979,   p = 0.1638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.979,   two-sided p = 0.3276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLR test for models 7 and 3	nested: FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.669,   p = 0.748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.669,   p = 0.2518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.669,   two-sided p = 0.5035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLR test for models 8 and 3	nested: FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.188,   p = 0.883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.188,   p = 0.1173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.188,   two-sided p = 0.2347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Best model is Model 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.999999504072285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lymph_BNHL__SBS5+SBS37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBS37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBS37*SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-22.76506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prost_AdenoCA__SBS5+SBS37</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lymph_BNHL__HR+SBS37</t>
   </si>
   <si>
-    <t xml:space="preserve">HR*SBS37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-22.39569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-26.01151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 7.232,   p = 0.0185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 7.232,   p = 0.00716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-22.79160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.792,   p = 0.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.792,   p = 0.374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-27.45223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 9.321,   p = 0.00687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 9.321,   p = 0.00227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusHR+SBS37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.782,   p = 0.783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.782,   p = 0.2171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.782,   two-sided p = 0.4342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.957,   p = 0.831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.957,   p = 0.1692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.957,   two-sided p = 0.3384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.095,   p = 0.863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.095,   p = 0.1368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.095,   two-sided p = 0.2737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.999955276258592</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lymph_BNHL__MMR+SBS37</t>
   </si>
   <si>
-    <t xml:space="preserve">MMR*SBS37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-21.38362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-25.26028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 7.753,   p = 0.0177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 7.753,   p = 0.00536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-22.02421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 1.281,   p = 0.202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 1.281,   p = 0.258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-27.32436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 10.600,   p = 0.00528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 10.600,   p = 0.00113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusMMR+SBS37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.391,   p = 0.652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.391,   p = 0.3477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.391,   two-sided p = 0.6955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.914,   p = 0.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.914,   p = 0.1803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.914,   two-sided p = 0.3606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.845,   p = 0.199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.845,   p = 0.8008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.845,   two-sided p = 0.3983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.172,   p = 0.879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.172,   p = 0.1206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.172,   two-sided p = 0.2413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.999980679776613</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lymph_BNHL__SBS34+SBS37</t>
   </si>
   <si>
-    <t xml:space="preserve">SBS34*SBS37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-22.42517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-25.58834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 6.326,   p = 0.0167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 6.326,   p = 0.0119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-23.00416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 1.158,   p = 0.252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 1.158,   p = 0.282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-27.87468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 9.741,   p = 0.00157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 9.741,   p = 0.0018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS34+SBS37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.427,   p = 0.665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.427,   p = 0.3347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.427,   two-sided p = 0.6694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.837,   p = 0.799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.837,   p = 0.2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.837,   two-sided p = 0.4029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = &lt;2e-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.151,   p = 0.875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.151,   p = 0.1248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.151,   two-sided p = 0.2497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.99881890241557</t>
+    <t xml:space="preserve">Lymph_BNHL__Technical+SBS37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBS37*Technical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-20.97420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-24.44087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 6.933,   p = 0.0188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 6.933,   p = 0.00846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-21.91223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 1.876,   p = 0.136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-26.64213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 9.460,   p = 0.00849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 9.460,   p = 0.0021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusSBS37+Technical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.031,   p = 0.512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.031,   p = 0.4877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.031,   two-sided p = 0.9755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.719,   p = 0.764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.719,   p = 0.2362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.719,   two-sided p = 0.4724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.050,   p = 0.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.050,   p = 0.4799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.050,   two-sided p = 0.9598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.036,   p = 0.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.036,   p = 0.1502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.036,   two-sided p = 0.3004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.999966243157503</t>
   </si>
   <si>
     <t xml:space="preserve">Lymph_BNHL__MMR+Technical</t>
   </si>
   <si>
-    <t xml:space="preserve">Technical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR*Technical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-23.57545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-26.19934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 5.248,   p = 0.0247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 5.248,   p = 0.022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusTechnical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusMMR+Technical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-20.17473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.838,   p = 0.201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.838,   p = 0.799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.838,   two-sided p = 0.4021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-21.32231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.684,   p = 0.247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.684,   p = 0.7531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.684,   two-sided p = 0.4938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.759,   p = 0.776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.759,   p = 0.2238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.759,   two-sided p = 0.4476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.999630964540438</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lymph_BNHL__SBS34+Technical</t>
   </si>
   <si>
-    <t xml:space="preserve">SBS34*Technical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-20.87222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-24.15775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 6.571,   p = 0.00735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 6.571,   p = 0.0104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-21.73248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 1.721,   p = 0.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 1.721,   p = 0.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-26.35762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 9.250,   p = 0.00101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 9.250,   p = 0.00235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS34+Technical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.103,   p = 0.541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.103,   p = 0.459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.103,   two-sided p = 0.918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.759,   p = 0.224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.759,   two-sided p = 0.4479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.353,   p = 0.912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.353,   p = 0.08795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.353,   two-sided p = 0.1759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.088,   p = 0.862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.088,   p = 0.1382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.088,   two-sided p = 0.2764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.999994891879395</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lymph_BNHL__SBS37+Technical</t>
   </si>
   <si>
-    <t xml:space="preserve">SBS37*Technical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-20.97420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-24.44087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 6.933,   p = 0.0188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 6.933,   p = 0.00846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-21.91223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 1.876,   p = 0.136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-26.64213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 9.460,   p = 0.00849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 9.460,   p = 0.0021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS37+Technical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.031,   p = 0.512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.031,   p = 0.4877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.031,   two-sided p = 0.9755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.719,   p = 0.764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.719,   p = 0.2362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.719,   two-sided p = 0.4724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.050,   p = 0.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.050,   p = 0.4799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.050,   two-sided p = 0.9598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.036,   p = 0.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.036,   p = 0.1502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.036,   two-sided p = 0.3004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.999966243157503</t>
-  </si>
-  <si>
     <t xml:space="preserve">Panc_Endocrine__SBS39+PolH</t>
   </si>
   <si>
-    <t xml:space="preserve">PolH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBS39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PolH*SBS39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-44.08514</t>
-  </si>
-  <si>
     <t xml:space="preserve">Panc_Endocrine__HR+SBS30</t>
   </si>
   <si>
-    <t xml:space="preserve">SBS30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HR*SBS30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-44.45059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-44.80072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.700,   p = 0.406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.700,   p = 0.403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-46.63189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.158,   p = 0.877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.158,   p = 0.1234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.158,   two-sided p = 0.2468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-47.46553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.000451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 5.330,   p = 0.000802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 5.330,   p = 0.021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusHR+SBS30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.099,   p = 0.864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.099,   p = 0.1359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.099,   two-sided p = 0.2718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.138,   p = 0.555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.138,   p = 0.4451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.138,   two-sided p = 0.8902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.00046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.795,   p = 0.787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.795,   p = 0.2134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.795,   two-sided p = 0.4269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.998248986041709</t>
-  </si>
-  <si>
     <t xml:space="preserve">Skin_Melanoma__APOBEC+SBS38</t>
   </si>
   <si>
-    <t xml:space="preserve">SBS38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APOBEC*SBS38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-215.7486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-215.9832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.469,   p = 0.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.469,   p = 0.493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-216.5328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.352,   p = 0.638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.352,   p = 0.3623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.352,   two-sided p = 0.7247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-216.7422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 1.518,   p = 0.215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 1.518,   p = 0.218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusAPOBEC+SBS38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -2.172,   p = 0.985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -2.172,   p = 0.01493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -2.172,   two-sided p = 0.02987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.978,   p = 0.836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.978,   p = 0.164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.978,   two-sided p = 0.3279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -2.677,   p = 0.996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -2.677,   p = 0.003718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -2.677,   two-sided p = 0.007435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 1.360,   p = 0.087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 1.360,   p = 0.913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 1.360,   two-sided p = 0.174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.673990455325615</t>
-  </si>
-  <si>
     <t xml:space="preserve">Skin_Melanoma__SBS40+SBS38</t>
   </si>
   <si>
-    <t xml:space="preserve">SBS38*SBS40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-215.4305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-215.6358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.411,   p = 0.538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.411,   p = 0.522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-215.8742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.201,   p = 0.579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.201,   p = 0.4205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.201,   two-sided p = 0.8411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-216.0369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.802,   p = 0.312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.802,   p = 0.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS38+SBS40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -3.335,   p = 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -3.335,   p = 0.0004267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -3.335,   two-sided p = 0.0008533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.832,   p = 0.967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.832,   p = 0.03346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.832,   two-sided p = 0.06691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -3.066,   p = 0.999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -3.066,   p = 0.001083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -3.066,   two-sided p = 0.002167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.0897878456660943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skin_Melanoma__Ageing+SBS38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ageing*SBS38</t>
+    <t xml:space="preserve">Skin_Melanoma__CL SBS1+SBS38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL SBS1*SBS38</t>
   </si>
   <si>
     <t xml:space="preserve">-216.0979</t>
@@ -2851,7 +2768,7 @@
     <t xml:space="preserve">    LR = 3.778,   p = 0.0519</t>
   </si>
   <si>
-    <t xml:space="preserve">statusAgeing+SBS38</t>
+    <t xml:space="preserve">statusCL SBS1+SBS38</t>
   </si>
   <si>
     <t xml:space="preserve">    z = -1.843,   p = 0.967</t>
@@ -2884,13 +2801,13 @@
     <t xml:space="preserve">p-value of interaction in this model: 0.457807101859502</t>
   </si>
   <si>
-    <t xml:space="preserve">Skin_Melanoma__SBS5+UV</t>
+    <t xml:space="preserve">Skin_Melanoma__CL SBS5+UV</t>
   </si>
   <si>
     <t xml:space="preserve">UV</t>
   </si>
   <si>
-    <t xml:space="preserve">SBS5*UV</t>
+    <t xml:space="preserve">CL SBS5*UV</t>
   </si>
   <si>
     <t xml:space="preserve">-217.1198</t>
@@ -3240,7 +3157,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2">
@@ -3355,7 +3272,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>161</v>
+        <v>274</v>
       </c>
       <c r="B10" t="n">
         <v>-3.21981543030598</v>
@@ -3388,10 +3305,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>171</v>
+        <v>284</v>
       </c>
       <c r="B14" t="s">
-        <v>172</v>
+        <v>285</v>
       </c>
     </row>
     <row r="35">
@@ -3481,12 +3398,12 @@
         <v>4.41665062708879</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0000100242055312113</v>
+        <v>0.0000100242055312114</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>161</v>
+        <v>274</v>
       </c>
       <c r="B42" t="n">
         <v>-3.24601013543627</v>
@@ -3519,10 +3436,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>171</v>
+        <v>284</v>
       </c>
       <c r="B47" t="s">
-        <v>173</v>
+        <v>286</v>
       </c>
     </row>
     <row r="50">
@@ -3552,7 +3469,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>174</v>
+        <v>287</v>
       </c>
     </row>
     <row r="56">
@@ -3572,7 +3489,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>175</v>
+        <v>288</v>
       </c>
     </row>
     <row r="60">
@@ -3592,7 +3509,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>176</v>
+        <v>289</v>
       </c>
     </row>
     <row r="68">
@@ -3687,7 +3604,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>161</v>
+        <v>274</v>
       </c>
       <c r="B75" t="n">
         <v>-3.08571863454416</v>
@@ -3720,10 +3637,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>171</v>
+        <v>284</v>
       </c>
       <c r="B80" t="s">
-        <v>177</v>
+        <v>290</v>
       </c>
     </row>
     <row r="83">
@@ -3753,7 +3670,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>178</v>
+        <v>291</v>
       </c>
     </row>
     <row r="89">
@@ -3773,7 +3690,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>179</v>
+        <v>292</v>
       </c>
     </row>
     <row r="93">
@@ -3783,7 +3700,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>180</v>
+        <v>293</v>
       </c>
     </row>
     <row r="95">
@@ -3793,7 +3710,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>181</v>
+        <v>294</v>
       </c>
     </row>
     <row r="101">
@@ -3868,7 +3785,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>161</v>
+        <v>274</v>
       </c>
       <c r="B107" t="n">
         <v>-3.07724122683676</v>
@@ -3901,10 +3818,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>171</v>
+        <v>284</v>
       </c>
       <c r="B113" t="s">
-        <v>182</v>
+        <v>295</v>
       </c>
     </row>
     <row r="116">
@@ -3934,7 +3851,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>183</v>
+        <v>296</v>
       </c>
     </row>
     <row r="122">
@@ -3954,7 +3871,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>184</v>
+        <v>297</v>
       </c>
     </row>
     <row r="126">
@@ -3974,7 +3891,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>185</v>
+        <v>298</v>
       </c>
     </row>
     <row r="134">
@@ -4049,7 +3966,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>186</v>
+        <v>299</v>
       </c>
       <c r="B140" t="n">
         <v>0.334215487705322</v>
@@ -4084,12 +4001,12 @@
         <v>4.3300968056889</v>
       </c>
       <c r="F141" t="n">
-        <v>0.0000149043806115918</v>
+        <v>0.0000149043806115917</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>187</v>
+        <v>300</v>
       </c>
       <c r="B142" t="n">
         <v>0.499455513972763</v>
@@ -4122,10 +4039,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>171</v>
+        <v>284</v>
       </c>
       <c r="B146" t="s">
-        <v>172</v>
+        <v>285</v>
       </c>
     </row>
     <row r="149">
@@ -4155,7 +4072,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>188</v>
+        <v>301</v>
       </c>
     </row>
     <row r="155">
@@ -4175,7 +4092,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>189</v>
+        <v>302</v>
       </c>
     </row>
     <row r="159">
@@ -4185,7 +4102,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>190</v>
+        <v>303</v>
       </c>
     </row>
     <row r="161">
@@ -4195,7 +4112,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>191</v>
+        <v>304</v>
       </c>
     </row>
     <row r="167">
@@ -4250,7 +4167,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>186</v>
+        <v>299</v>
       </c>
       <c r="B172" t="n">
         <v>0.326627585453498</v>
@@ -4290,7 +4207,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>187</v>
+        <v>300</v>
       </c>
       <c r="B174" t="n">
         <v>0.494759747832961</v>
@@ -4323,10 +4240,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>171</v>
+        <v>284</v>
       </c>
       <c r="B179" t="s">
-        <v>173</v>
+        <v>286</v>
       </c>
     </row>
     <row r="182">
@@ -4356,7 +4273,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>183</v>
+        <v>296</v>
       </c>
     </row>
     <row r="188">
@@ -4376,7 +4293,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>192</v>
+        <v>305</v>
       </c>
     </row>
     <row r="192">
@@ -4386,7 +4303,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>193</v>
+        <v>306</v>
       </c>
     </row>
     <row r="194">
@@ -4396,7 +4313,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>194</v>
+        <v>307</v>
       </c>
     </row>
     <row r="200">
@@ -4451,7 +4368,7 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>186</v>
+        <v>299</v>
       </c>
       <c r="B205" t="n">
         <v>0.21700244586435</v>
@@ -4491,7 +4408,7 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>187</v>
+        <v>300</v>
       </c>
       <c r="B207" t="n">
         <v>0.430930365178083</v>
@@ -4524,10 +4441,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>171</v>
+        <v>284</v>
       </c>
       <c r="B212" t="s">
-        <v>177</v>
+        <v>290</v>
       </c>
     </row>
     <row r="215">
@@ -4557,7 +4474,7 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>195</v>
+        <v>308</v>
       </c>
     </row>
     <row r="221">
@@ -4577,7 +4494,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>196</v>
+        <v>309</v>
       </c>
     </row>
     <row r="225">
@@ -4587,7 +4504,7 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>197</v>
+        <v>310</v>
       </c>
     </row>
     <row r="227">
@@ -4597,7 +4514,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>198</v>
+        <v>311</v>
       </c>
     </row>
     <row r="233">
@@ -4632,7 +4549,7 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>186</v>
+        <v>299</v>
       </c>
       <c r="B237" t="n">
         <v>0.21723418187727</v>
@@ -4672,7 +4589,7 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>187</v>
+        <v>300</v>
       </c>
       <c r="B239" t="n">
         <v>0.431189507426741</v>
@@ -4705,10 +4622,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>171</v>
+        <v>284</v>
       </c>
       <c r="B245" t="s">
-        <v>182</v>
+        <v>295</v>
       </c>
     </row>
     <row r="248">
@@ -4758,7 +4675,7 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>199</v>
+        <v>312</v>
       </c>
     </row>
     <row r="258">
@@ -4768,7 +4685,7 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>200</v>
+        <v>313</v>
       </c>
     </row>
     <row r="260">
@@ -4778,7 +4695,7 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>201</v>
+        <v>314</v>
       </c>
     </row>
     <row r="266">
@@ -4788,7 +4705,7 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>202</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -4807,7 +4724,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>901</v>
+        <v>420</v>
       </c>
     </row>
     <row r="2">
@@ -4882,7 +4799,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>868</v>
+        <v>237</v>
       </c>
       <c r="B8" t="n">
         <v>0.2970492286519</v>
@@ -4922,7 +4839,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>902</v>
+        <v>421</v>
       </c>
       <c r="B10" t="n">
         <v>-1.29108961990048</v>
@@ -4958,7 +4875,7 @@
         <v>120</v>
       </c>
       <c r="B14" t="s">
-        <v>903</v>
+        <v>422</v>
       </c>
     </row>
     <row r="35">
@@ -5013,7 +4930,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>868</v>
+        <v>237</v>
       </c>
       <c r="B40" t="n">
         <v>0.323356073736831</v>
@@ -5053,7 +4970,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>902</v>
+        <v>421</v>
       </c>
       <c r="B42" t="n">
         <v>-1.32633345065841</v>
@@ -5089,7 +5006,7 @@
         <v>120</v>
       </c>
       <c r="B47" t="s">
-        <v>904</v>
+        <v>423</v>
       </c>
     </row>
     <row r="50">
@@ -5119,7 +5036,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>905</v>
+        <v>424</v>
       </c>
     </row>
     <row r="56">
@@ -5139,7 +5056,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>906</v>
+        <v>425</v>
       </c>
     </row>
     <row r="60">
@@ -5159,7 +5076,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>907</v>
+        <v>426</v>
       </c>
     </row>
     <row r="68">
@@ -5214,7 +5131,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>868</v>
+        <v>237</v>
       </c>
       <c r="B73" t="n">
         <v>0.522308892910148</v>
@@ -5254,7 +5171,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>902</v>
+        <v>421</v>
       </c>
       <c r="B75" t="n">
         <v>-1.48632880122129</v>
@@ -5290,7 +5207,7 @@
         <v>120</v>
       </c>
       <c r="B80" t="s">
-        <v>908</v>
+        <v>427</v>
       </c>
     </row>
     <row r="83">
@@ -5320,7 +5237,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>909</v>
+        <v>428</v>
       </c>
     </row>
     <row r="89">
@@ -5340,7 +5257,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>910</v>
+        <v>429</v>
       </c>
     </row>
     <row r="93">
@@ -5350,7 +5267,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>911</v>
+        <v>430</v>
       </c>
     </row>
     <row r="95">
@@ -5360,7 +5277,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>912</v>
+        <v>431</v>
       </c>
     </row>
     <row r="101">
@@ -5395,7 +5312,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>868</v>
+        <v>237</v>
       </c>
       <c r="B105" t="n">
         <v>0.540086175224498</v>
@@ -5435,7 +5352,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>902</v>
+        <v>421</v>
       </c>
       <c r="B107" t="n">
         <v>-1.51134568950057</v>
@@ -5471,7 +5388,7 @@
         <v>120</v>
       </c>
       <c r="B113" t="s">
-        <v>913</v>
+        <v>432</v>
       </c>
     </row>
     <row r="116">
@@ -5501,7 +5418,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>914</v>
+        <v>433</v>
       </c>
     </row>
     <row r="122">
@@ -5521,7 +5438,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>915</v>
+        <v>434</v>
       </c>
     </row>
     <row r="126">
@@ -5541,7 +5458,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>916</v>
+        <v>435</v>
       </c>
     </row>
     <row r="134">
@@ -5616,7 +5533,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>884</v>
+        <v>253</v>
       </c>
       <c r="B140" t="n">
         <v>0.297049228651899</v>
@@ -5656,7 +5573,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>917</v>
+        <v>436</v>
       </c>
       <c r="B142" t="n">
         <v>-0.475530937776269</v>
@@ -5692,7 +5609,7 @@
         <v>120</v>
       </c>
       <c r="B146" t="s">
-        <v>903</v>
+        <v>422</v>
       </c>
     </row>
     <row r="149">
@@ -5722,7 +5639,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>918</v>
+        <v>437</v>
       </c>
     </row>
     <row r="155">
@@ -5742,7 +5659,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>919</v>
+        <v>438</v>
       </c>
     </row>
     <row r="159">
@@ -5752,7 +5669,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>920</v>
+        <v>439</v>
       </c>
     </row>
     <row r="161">
@@ -5762,7 +5679,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>921</v>
+        <v>440</v>
       </c>
     </row>
     <row r="167">
@@ -5817,7 +5734,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>884</v>
+        <v>253</v>
       </c>
       <c r="B172" t="n">
         <v>0.323356073736832</v>
@@ -5857,7 +5774,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>917</v>
+        <v>436</v>
       </c>
       <c r="B174" t="n">
         <v>-0.380276010799645</v>
@@ -5893,7 +5810,7 @@
         <v>120</v>
       </c>
       <c r="B179" t="s">
-        <v>904</v>
+        <v>423</v>
       </c>
     </row>
     <row r="182">
@@ -5923,7 +5840,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>914</v>
+        <v>433</v>
       </c>
     </row>
     <row r="188">
@@ -5943,7 +5860,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>922</v>
+        <v>441</v>
       </c>
     </row>
     <row r="192">
@@ -5953,7 +5870,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>923</v>
+        <v>442</v>
       </c>
     </row>
     <row r="194">
@@ -5963,7 +5880,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>924</v>
+        <v>443</v>
       </c>
     </row>
     <row r="200">
@@ -6018,7 +5935,7 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>884</v>
+        <v>253</v>
       </c>
       <c r="B205" t="n">
         <v>0.522308892910149</v>
@@ -6058,7 +5975,7 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>917</v>
+        <v>436</v>
       </c>
       <c r="B207" t="n">
         <v>-0.0850804906897053</v>
@@ -6094,7 +6011,7 @@
         <v>120</v>
       </c>
       <c r="B212" t="s">
-        <v>908</v>
+        <v>427</v>
       </c>
     </row>
     <row r="215">
@@ -6124,7 +6041,7 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>925</v>
+        <v>444</v>
       </c>
     </row>
     <row r="221">
@@ -6144,7 +6061,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>926</v>
+        <v>445</v>
       </c>
     </row>
     <row r="225">
@@ -6154,7 +6071,7 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>927</v>
+        <v>446</v>
       </c>
     </row>
     <row r="227">
@@ -6164,7 +6081,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>928</v>
+        <v>447</v>
       </c>
     </row>
     <row r="233">
@@ -6199,7 +6116,7 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>884</v>
+        <v>253</v>
       </c>
       <c r="B237" t="n">
         <v>0.540086175224498</v>
@@ -6239,7 +6156,7 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>917</v>
+        <v>436</v>
       </c>
       <c r="B239" t="n">
         <v>-0.0189141082909124</v>
@@ -6275,7 +6192,7 @@
         <v>120</v>
       </c>
       <c r="B245" t="s">
-        <v>913</v>
+        <v>432</v>
       </c>
     </row>
     <row r="248">
@@ -6325,7 +6242,7 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>281</v>
+        <v>448</v>
       </c>
     </row>
     <row r="258">
@@ -6335,7 +6252,7 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>281</v>
+        <v>448</v>
       </c>
     </row>
     <row r="260">
@@ -6345,7 +6262,7 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>282</v>
+        <v>449</v>
       </c>
     </row>
     <row r="266">
@@ -6355,7 +6272,1574 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>929</v>
+        <v>450</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0064519445217608</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.00647280315126</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0101143880345657</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.637897666147614</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.523540297090367</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.146408741252861</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.863804558459699</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.154578219426985</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.947149875290268</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.343562412998684</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.2970492286519</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.34588155375179</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.775182266663994</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.383199205433651</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.701572067115882</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.518509453472308</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.67952237680289</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.559333734868281</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.927012660150764</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.353919961103682</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>421</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-1.29108961990048</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.274971005917724</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.921105314583459</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-1.40167427053043</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.161012537274541</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="n">
+        <v>-0.138348463950112</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.870795198136097</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.153620699163857</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-0.900584782539917</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.367809128574347</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>237</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.323356073736831</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1.38175727079536</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.775984441413288</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.416704326117555</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.676894689664593</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.622701366121929</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1.86395647584445</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.534047638916156</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1.16600340633599</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.24361306825826</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>421</v>
+      </c>
+      <c r="B42" t="n">
+        <v>-1.32633345065841</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.265448760164001</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.920738756436178</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-1.44051007018769</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.149723143037474</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>120</v>
+      </c>
+      <c r="B47" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.00572129066120213</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1.00573768850197</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.01007471472175</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.567886120770309</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.570112296816931</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>237</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.522308892910148</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1.68591575829985</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.730936117031459</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.714575296992293</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.474871513616161</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.878939417621439</v>
+      </c>
+      <c r="C74" t="n">
+        <v>2.40834410412504</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.41110148196207</v>
+      </c>
+      <c r="E74" t="n">
+        <v>2.13801082259911</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.0325158648655497</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>421</v>
+      </c>
+      <c r="B75" t="n">
+        <v>-1.48632880122129</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.226201563970037</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.891201205475389</v>
+      </c>
+      <c r="E75" t="n">
+        <v>-1.6677814079352</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.0953591279453184</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>15</v>
+      </c>
+      <c r="B79" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>120</v>
+      </c>
+      <c r="B80" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>3</v>
+      </c>
+      <c r="B104" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104" t="s">
+        <v>6</v>
+      </c>
+      <c r="E104" t="s">
+        <v>7</v>
+      </c>
+      <c r="F104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>237</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.540086175224498</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1.71615474583331</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.730506208542234</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.739331396378232</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.45970578902577</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>12</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.95234540598516</v>
+      </c>
+      <c r="C106" t="n">
+        <v>2.59178131569298</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.39194305493003</v>
+      </c>
+      <c r="E106" t="n">
+        <v>2.42980553936636</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.015106925754031</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>421</v>
+      </c>
+      <c r="B107" t="n">
+        <v>-1.51134568950057</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.220612901652531</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.890851609136739</v>
+      </c>
+      <c r="E107" t="n">
+        <v>-1.69651788692968</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.0897878456660943</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>15</v>
+      </c>
+      <c r="B112" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>120</v>
+      </c>
+      <c r="B113" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>3</v>
+      </c>
+      <c r="B137" t="s">
+        <v>4</v>
+      </c>
+      <c r="C137" t="s">
+        <v>5</v>
+      </c>
+      <c r="D137" t="s">
+        <v>6</v>
+      </c>
+      <c r="E137" t="s">
+        <v>7</v>
+      </c>
+      <c r="F137" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>9</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.00645194452176081</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1.00647280315126</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.0101143880345657</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.637897666147615</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.523540297090367</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>10</v>
+      </c>
+      <c r="B139" t="n">
+        <v>-0.146408741252861</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.863804558459699</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.154578219426985</v>
+      </c>
+      <c r="E139" t="n">
+        <v>-0.947149875290269</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.343562412998683</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>253</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.297049228651899</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1.34588155375179</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.775182266663994</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.383199205433651</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.701572067115882</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>56</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.518509453472307</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1.67952237680289</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.559333734868281</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.927012660150763</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.353919961103683</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>436</v>
+      </c>
+      <c r="B142" t="n">
+        <v>-0.475530937776269</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.621554961833655</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.576685919933052</v>
+      </c>
+      <c r="E142" t="n">
+        <v>-0.82459259250074</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.409602928288895</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>15</v>
+      </c>
+      <c r="B145" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>120</v>
+      </c>
+      <c r="B146" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>3</v>
+      </c>
+      <c r="B170" t="s">
+        <v>4</v>
+      </c>
+      <c r="C170" t="s">
+        <v>5</v>
+      </c>
+      <c r="D170" t="s">
+        <v>6</v>
+      </c>
+      <c r="E170" t="s">
+        <v>7</v>
+      </c>
+      <c r="F170" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>10</v>
+      </c>
+      <c r="B171" t="n">
+        <v>-0.138348463950112</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0.870795198136097</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.153620699163857</v>
+      </c>
+      <c r="E171" t="n">
+        <v>-0.900584782539917</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.367809128574347</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>253</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.323356073736832</v>
+      </c>
+      <c r="C172" t="n">
+        <v>1.38175727079536</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.775984441413288</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.416704326117556</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.676894689664592</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>56</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.622701366121929</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1.86395647584445</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.534047638916156</v>
+      </c>
+      <c r="E173" t="n">
+        <v>1.16600340633599</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0.24361306825826</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>436</v>
+      </c>
+      <c r="B174" t="n">
+        <v>-0.380276010799645</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0.683672682124508</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.557105674972638</v>
+      </c>
+      <c r="E174" t="n">
+        <v>-0.682592240365029</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0.494864538704573</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>15</v>
+      </c>
+      <c r="B178" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>120</v>
+      </c>
+      <c r="B179" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>3</v>
+      </c>
+      <c r="B203" t="s">
+        <v>4</v>
+      </c>
+      <c r="C203" t="s">
+        <v>5</v>
+      </c>
+      <c r="D203" t="s">
+        <v>6</v>
+      </c>
+      <c r="E203" t="s">
+        <v>7</v>
+      </c>
+      <c r="F203" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>9</v>
+      </c>
+      <c r="B204" t="n">
+        <v>0.00572129066120214</v>
+      </c>
+      <c r="C204" t="n">
+        <v>1.00573768850197</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0.01007471472175</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0.567886120770309</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0.57011229681693</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>253</v>
+      </c>
+      <c r="B205" t="n">
+        <v>0.522308892910149</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1.68591575829985</v>
+      </c>
+      <c r="D205" t="n">
+        <v>0.730936117031459</v>
+      </c>
+      <c r="E205" t="n">
+        <v>0.714575296992294</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0.474871513616161</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>56</v>
+      </c>
+      <c r="B206" t="n">
+        <v>0.878939417621439</v>
+      </c>
+      <c r="C206" t="n">
+        <v>2.40834410412504</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0.41110148196207</v>
+      </c>
+      <c r="E206" t="n">
+        <v>2.13801082259911</v>
+      </c>
+      <c r="F206" t="n">
+        <v>0.0325158648655497</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>436</v>
+      </c>
+      <c r="B207" t="n">
+        <v>-0.0850804906897053</v>
+      </c>
+      <c r="C207" t="n">
+        <v>0.918438355689509</v>
+      </c>
+      <c r="D207" t="n">
+        <v>0.40677111448432</v>
+      </c>
+      <c r="E207" t="n">
+        <v>-0.209160600790362</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0.834322868150559</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>15</v>
+      </c>
+      <c r="B211" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>120</v>
+      </c>
+      <c r="B212" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>3</v>
+      </c>
+      <c r="B236" t="s">
+        <v>4</v>
+      </c>
+      <c r="C236" t="s">
+        <v>5</v>
+      </c>
+      <c r="D236" t="s">
+        <v>6</v>
+      </c>
+      <c r="E236" t="s">
+        <v>7</v>
+      </c>
+      <c r="F236" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>253</v>
+      </c>
+      <c r="B237" t="n">
+        <v>0.540086175224498</v>
+      </c>
+      <c r="C237" t="n">
+        <v>1.71615474583331</v>
+      </c>
+      <c r="D237" t="n">
+        <v>0.730506208542233</v>
+      </c>
+      <c r="E237" t="n">
+        <v>0.739331396378233</v>
+      </c>
+      <c r="F237" t="n">
+        <v>0.45970578902577</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>56</v>
+      </c>
+      <c r="B238" t="n">
+        <v>0.95234540598516</v>
+      </c>
+      <c r="C238" t="n">
+        <v>2.59178131569298</v>
+      </c>
+      <c r="D238" t="n">
+        <v>0.39194305493003</v>
+      </c>
+      <c r="E238" t="n">
+        <v>2.42980553936636</v>
+      </c>
+      <c r="F238" t="n">
+        <v>0.0151069257540309</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>436</v>
+      </c>
+      <c r="B239" t="n">
+        <v>-0.0189141082909124</v>
+      </c>
+      <c r="C239" t="n">
+        <v>0.981263641034523</v>
+      </c>
+      <c r="D239" t="n">
+        <v>0.390460718206476</v>
+      </c>
+      <c r="E239" t="n">
+        <v>-0.0484404894243694</v>
+      </c>
+      <c r="F239" t="n">
+        <v>0.961365191268632</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>15</v>
+      </c>
+      <c r="B244" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>120</v>
+      </c>
+      <c r="B245" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>450</v>
       </c>
     </row>
   </sheetData>
